--- a/biology/Histoire de la zoologie et de la botanique/Pascal_Godefroit/Pascal_Godefroit.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pascal_Godefroit/Pascal_Godefroit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pascal Godefroit est un paléontologue belge connu pour ses travaux sur les dinosaures[1],[2], en particulier sur Aurornis, un possible ancêtre des oiseaux[3], et sur Kulindadromeus, le premier ornithischien sur lequel sont observées des plumes primitives[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pascal Godefroit est un paléontologue belge connu pour ses travaux sur les dinosaures en particulier sur Aurornis, un possible ancêtre des oiseaux, et sur Kulindadromeus, le premier ornithischien sur lequel sont observées des plumes primitives.
 </t>
         </is>
       </c>
